--- a/data/trans_orig/P1435-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB29B0F-30D6-48F6-AE70-DDCE5180026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7BD067-B273-4A35-841D-D4DB05866AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67B2F58C-0ACC-424E-A9DD-C9C81657DA10}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D39EEA94-02CA-405C-9CF5-5AAB129FF3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="262">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>96,0%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -146,7 +146,7 @@
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>7,4%</t>
@@ -158,7 +158,7 @@
     <t>92,6%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -170,19 +170,19 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -197,13 +197,13 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>93,6%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>99,06%</t>
@@ -218,19 +218,19 @@
     <t>8,58%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -242,19 +242,19 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -266,19 +266,19 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -287,19 +287,19 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -314,19 +314,19 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>0,6%</t>
@@ -335,70 +335,70 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -407,19 +407,19 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -428,190 +428,208 @@
     <t>1,64%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
@@ -623,13 +641,13 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,68%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -638,7 +656,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,17%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>1,71%</t>
@@ -647,151 +665,157 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>90,74%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>18,53%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>36,67%</t>
+    <t>37,13%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>7,55%</t>
@@ -800,10 +824,7 @@
     <t>93,06%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>90,34%</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0D825C-D8A4-4061-8004-6D3486103B7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CFC8CE-C5C4-4D68-83B0-77F8CEA50FB7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3133,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F453073D-E452-4C71-9F58-B331CD9DC519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE729697-9AA1-4452-A726-74A46BBACBF8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5035,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4357C0C-7574-440C-9C5E-8B3854ACDE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC63D0D4-780C-492C-A17E-8AAEEE08E549}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,10 +5245,10 @@
         <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5239,10 +5260,10 @@
         <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5291,13 @@
         <v>282384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>271</v>
@@ -5285,13 +5306,13 @@
         <v>282384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5440,13 @@
         <v>3927</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5434,13 +5455,13 @@
         <v>3927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5489,13 @@
         <v>519157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>480</v>
@@ -5483,13 +5504,13 @@
         <v>519157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5595,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5589,7 +5610,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5638,13 @@
         <v>7343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5632,13 +5653,13 @@
         <v>7343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5687,13 @@
         <v>328966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
@@ -5681,13 +5702,13 @@
         <v>328966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,7 +5793,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5787,7 +5808,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5836,13 @@
         <v>4698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5830,13 +5851,13 @@
         <v>4698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5885,13 @@
         <v>382585</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
         <v>353</v>
@@ -5879,13 +5900,13 @@
         <v>382585</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +5991,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5985,7 +6006,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6034,13 @@
         <v>3874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -6028,13 +6049,13 @@
         <v>3874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,7 +6083,7 @@
         <v>214713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>171</v>
@@ -6077,7 +6098,7 @@
         <v>214713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>171</v>
@@ -6217,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6232,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6281,13 @@
         <v>272194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -6275,13 +6296,13 @@
         <v>272194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6430,13 @@
         <v>31300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6424,13 +6445,13 @@
         <v>31300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6479,13 @@
         <v>659994</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>615</v>
@@ -6473,13 +6494,13 @@
         <v>659994</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6628,13 @@
         <v>8007</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6622,13 +6643,13 @@
         <v>8007</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6677,13 @@
         <v>818160</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>747</v>
@@ -6671,13 +6692,13 @@
         <v>818160</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6826,13 @@
         <v>66388</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>67</v>
@@ -6820,13 +6841,13 @@
         <v>66388</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6875,13 @@
         <v>3478154</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="M38" s="7">
         <v>3271</v>
@@ -6869,13 +6890,13 @@
         <v>3478154</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,7 +6974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8955C1D2-80E7-487C-AA5B-BB17360144D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE4F7E-91DB-4035-8D7E-4869DE5C20ED}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6970,7 +6991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7096,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7111,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7160,13 @@
         <v>1103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7154,13 +7175,13 @@
         <v>1103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7209,13 @@
         <v>270300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>535</v>
@@ -7203,13 +7224,13 @@
         <v>270300</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7309,13 @@
         <v>3785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7303,13 +7324,13 @@
         <v>3785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7358,13 @@
         <v>33379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -7352,13 +7373,13 @@
         <v>33379</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7407,13 @@
         <v>516022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>677</v>
@@ -7401,13 +7422,13 @@
         <v>516022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,7 +7513,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7507,7 +7528,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7556,13 @@
         <v>10919</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7550,13 +7571,13 @@
         <v>10919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7605,13 @@
         <v>362365</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>523</v>
@@ -7599,13 +7620,13 @@
         <v>362365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7705,13 @@
         <v>673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7699,13 +7720,13 @@
         <v>673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7754,13 @@
         <v>30417</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7748,13 +7769,13 @@
         <v>30417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7803,13 @@
         <v>397466</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>582</v>
@@ -7797,13 +7818,13 @@
         <v>397466</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7903,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7897,13 +7918,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7952,13 @@
         <v>20136</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7946,13 +7967,13 @@
         <v>20136</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +8001,13 @@
         <v>211360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>454</v>
@@ -7995,13 +8016,13 @@
         <v>211360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,7 +8107,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -8101,7 +8122,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8150,13 @@
         <v>12870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8144,13 +8165,13 @@
         <v>12870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8199,13 @@
         <v>262034</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -8193,13 +8214,13 @@
         <v>262034</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,13 +8299,13 @@
         <v>779</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8293,13 +8314,13 @@
         <v>779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,13 +8348,13 @@
         <v>102215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -8342,13 +8363,13 @@
         <v>102215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +8397,13 @@
         <v>699447</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>837</v>
@@ -8391,13 +8412,13 @@
         <v>699447</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8476,13 +8497,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8491,13 +8512,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,13 +8546,13 @@
         <v>18079</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -8540,13 +8561,13 @@
         <v>18079</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8574,13 +8595,13 @@
         <v>847593</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>1042</v>
@@ -8589,13 +8610,13 @@
         <v>847593</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,10 +8698,10 @@
         <v>49</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -8692,10 +8713,10 @@
         <v>49</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8744,13 @@
         <v>229119</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>255</v>
@@ -8738,13 +8759,13 @@
         <v>229119</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8793,13 @@
         <v>3566588</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="M38" s="7">
         <v>5094</v>
@@ -8787,13 +8808,13 @@
         <v>3566588</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7BD067-B273-4A35-841D-D4DB05866AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A117CA65-BC68-4FAD-9AB8-15025524588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D39EEA94-02CA-405C-9CF5-5AAB129FF3CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A421ABDC-1049-4848-99EC-E7253964BB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="260">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>96,0%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -146,19 +146,19 @@
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -170,19 +170,19 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -194,19 +194,19 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -218,613 +218,607 @@
     <t>8,58%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>87,37%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>94,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CFC8CE-C5C4-4D68-83B0-77F8CEA50FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819A7F8F-1CF2-4C17-AA28-FC6D152D0C0F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3154,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE729697-9AA1-4452-A726-74A46BBACBF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCADB0E3-1265-4EC8-9B71-0409A3E39A6C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4314,13 +4308,13 @@
         <v>19219</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -4329,13 +4323,13 @@
         <v>19219</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4357,13 @@
         <v>258877</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>249</v>
@@ -4378,13 +4372,13 @@
         <v>258877</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4484,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4506,13 @@
         <v>25726</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -4527,13 +4521,13 @@
         <v>25726</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4555,13 @@
         <v>668127</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>612</v>
@@ -4576,13 +4570,13 @@
         <v>668127</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4661,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4682,7 +4676,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4704,13 @@
         <v>13526</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -4725,13 +4719,13 @@
         <v>13526</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4753,13 @@
         <v>809052</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M34" s="7">
         <v>743</v>
@@ -4774,13 +4768,13 @@
         <v>809052</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4902,13 @@
         <v>137409</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M37" s="7">
         <v>133</v>
@@ -4923,13 +4917,13 @@
         <v>137409</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4951,13 @@
         <v>3417689</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M38" s="7">
         <v>3163</v>
@@ -4972,13 +4966,13 @@
         <v>3417689</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +5050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC63D0D4-780C-492C-A17E-8AAEEE08E549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EF26ED-9B21-418E-AE35-82939088A859}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5073,7 +5067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5199,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5214,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5236,13 @@
         <v>6319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5257,13 +5251,13 @@
         <v>6319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5285,13 @@
         <v>282384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M6" s="7">
         <v>271</v>
@@ -5306,13 +5300,13 @@
         <v>282384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5434,13 @@
         <v>3927</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5455,13 +5449,13 @@
         <v>3927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5483,13 @@
         <v>519157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>480</v>
@@ -5504,13 +5498,13 @@
         <v>519157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5589,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5610,7 +5604,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5632,13 @@
         <v>7343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5653,13 +5647,13 @@
         <v>7343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5681,13 @@
         <v>328966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
@@ -5702,13 +5696,13 @@
         <v>328966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5808,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5830,13 @@
         <v>4698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5851,13 +5845,13 @@
         <v>4698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5879,13 @@
         <v>382585</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>353</v>
@@ -5900,13 +5894,13 @@
         <v>382585</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +5985,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6006,7 +6000,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6028,13 @@
         <v>3874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -6049,13 +6043,13 @@
         <v>3874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6077,13 @@
         <v>214713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -6098,13 +6092,13 @@
         <v>214713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,7 +6183,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6204,7 +6198,7 @@
         <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6226,13 @@
         <v>921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6247,13 +6241,13 @@
         <v>921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6275,13 @@
         <v>272194</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -6296,13 +6290,13 @@
         <v>272194</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6381,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6402,7 +6396,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6424,13 @@
         <v>31300</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6445,13 +6439,13 @@
         <v>31300</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6473,13 @@
         <v>659994</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>615</v>
@@ -6494,13 +6488,13 @@
         <v>659994</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,7 +6579,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6600,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6622,13 @@
         <v>8007</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6643,13 +6637,13 @@
         <v>8007</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6671,13 @@
         <v>818160</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>747</v>
@@ -6692,13 +6686,13 @@
         <v>818160</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6820,13 @@
         <v>66388</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M37" s="7">
         <v>67</v>
@@ -6841,13 +6835,13 @@
         <v>66388</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6869,13 @@
         <v>3478154</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M38" s="7">
         <v>3271</v>
@@ -6890,13 +6884,13 @@
         <v>3478154</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +6968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE4F7E-91DB-4035-8D7E-4869DE5C20ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89411827-0FAC-4537-A8F5-338085736E9B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6991,7 +6985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7117,7 +7111,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7132,7 +7126,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7154,13 @@
         <v>1103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7175,13 +7169,13 @@
         <v>1103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7203,13 @@
         <v>270300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>535</v>
@@ -7224,13 +7218,13 @@
         <v>270300</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7303,13 @@
         <v>3785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7324,13 +7318,13 @@
         <v>3785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7352,13 @@
         <v>33379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -7373,13 +7367,13 @@
         <v>33379</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7401,13 @@
         <v>516022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>677</v>
@@ -7422,13 +7416,13 @@
         <v>516022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,7 +7507,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7528,7 +7522,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7550,13 @@
         <v>10919</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7571,13 +7565,13 @@
         <v>10919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7599,13 @@
         <v>362365</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>523</v>
@@ -7620,13 +7614,13 @@
         <v>362365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7699,13 @@
         <v>673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7720,13 +7714,13 @@
         <v>673</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7748,13 @@
         <v>30417</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7769,13 +7763,13 @@
         <v>30417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7797,13 @@
         <v>397466</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
         <v>582</v>
@@ -7818,13 +7812,13 @@
         <v>397466</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7897,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7918,13 +7912,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7946,13 @@
         <v>20136</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7967,13 +7961,13 @@
         <v>20136</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +7995,13 @@
         <v>211360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>454</v>
@@ -8016,13 +8010,13 @@
         <v>211360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -8122,7 +8116,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8144,13 @@
         <v>12870</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8165,13 +8159,13 @@
         <v>12870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8193,13 @@
         <v>262034</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -8214,13 +8208,13 @@
         <v>262034</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8293,13 @@
         <v>779</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8314,13 +8308,13 @@
         <v>779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,13 +8342,13 @@
         <v>102215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -8363,13 +8357,13 @@
         <v>102215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8391,13 @@
         <v>699447</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M30" s="7">
         <v>837</v>
@@ -8412,13 +8406,13 @@
         <v>699447</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8497,13 +8491,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8512,13 +8506,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,13 +8540,13 @@
         <v>18079</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -8561,13 +8555,13 @@
         <v>18079</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,13 +8589,13 @@
         <v>847593</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>1042</v>
@@ -8610,13 +8604,13 @@
         <v>847593</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,10 +8692,10 @@
         <v>49</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -8713,10 +8707,10 @@
         <v>49</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8744,13 +8738,13 @@
         <v>229119</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>255</v>
@@ -8759,13 +8753,13 @@
         <v>229119</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8793,13 +8787,13 @@
         <v>3566588</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="M38" s="7">
         <v>5094</v>
@@ -8808,13 +8802,13 @@
         <v>3566588</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A117CA65-BC68-4FAD-9AB8-15025524588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3222B77-F88A-42D8-AD6B-B6ED8714E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A421ABDC-1049-4848-99EC-E7253964BB7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B423DDE-A963-4E33-8845-6D426B81C8CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="223">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -71,754 +71,643 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819A7F8F-1CF2-4C17-AA28-FC6D152D0C0F}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3DF853-5093-4D52-9024-07D70B74ABCA}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1361,10 +1250,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>10431</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1376,10 +1265,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10431</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1410,10 +1299,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="I5" s="7">
-        <v>10431</v>
+        <v>250407</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1425,10 +1314,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="N5" s="7">
-        <v>10431</v>
+        <v>250407</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1443,7 +1332,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1459,40 +1348,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>250407</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7">
+        <v>245</v>
+      </c>
+      <c r="N6" s="7">
+        <v>260838</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7">
-        <v>235</v>
-      </c>
-      <c r="N6" s="7">
-        <v>250407</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1508,42 +1399,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>260838</v>
+        <v>85699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>260838</v>
+        <v>85699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1559,40 +1448,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>418250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="7">
+        <v>411</v>
+      </c>
+      <c r="N8" s="7">
+        <v>418250</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1608,40 +1497,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>85699</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
+        <v>499</v>
+      </c>
+      <c r="N9" s="7">
+        <v>503949</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="7">
-        <v>88</v>
-      </c>
-      <c r="N9" s="7">
-        <v>85699</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1657,40 +1548,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>418250</v>
+        <v>15885</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="M10" s="7">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>418250</v>
+        <v>15885</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1706,42 +1597,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>499</v>
+        <v>319</v>
       </c>
       <c r="I11" s="7">
-        <v>503949</v>
+        <v>319527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>499</v>
+        <v>319</v>
       </c>
       <c r="N11" s="7">
-        <v>503949</v>
+        <v>319527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1757,40 +1646,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>335412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1806,40 +1697,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>15885</v>
+        <v>26499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="7">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7">
+        <v>26499</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15885</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1855,34 +1746,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="I14" s="7">
-        <v>319527</v>
+        <v>344957</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7">
+        <v>357</v>
+      </c>
+      <c r="N14" s="7">
+        <v>344957</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="7">
-        <v>319</v>
-      </c>
-      <c r="N14" s="7">
-        <v>319527</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,39 +1795,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>335412</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="N15" s="7">
-        <v>335412</v>
+        <v>371456</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1955,34 +1846,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,40 +1895,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I17" s="7">
-        <v>26499</v>
+        <v>202156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="N17" s="7">
-        <v>26499</v>
+        <v>202156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2053,40 +1944,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>357</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>344957</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>357</v>
+        <v>198</v>
       </c>
       <c r="N18" s="7">
-        <v>344957</v>
+        <v>207668</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2102,42 +1995,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>371456</v>
+        <v>23865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>371456</v>
+        <v>23865</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2153,40 +2044,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>254279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>254279</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2202,40 +2093,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>5512</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="N21" s="7">
-        <v>5512</v>
+        <v>278144</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2251,40 +2144,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>202156</v>
+        <v>30213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>202156</v>
+        <v>30213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2300,42 +2193,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>198</v>
+        <v>593</v>
       </c>
       <c r="I23" s="7">
-        <v>207668</v>
+        <v>608006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
-        <v>198</v>
+        <v>593</v>
       </c>
       <c r="N23" s="7">
-        <v>207668</v>
+        <v>608006</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2351,40 +2242,42 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>638219</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2400,40 +2293,40 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>23865</v>
+        <v>62041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="N25" s="7">
-        <v>23865</v>
+        <v>62041</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2449,34 +2342,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>246</v>
+        <v>684</v>
       </c>
       <c r="I26" s="7">
-        <v>254279</v>
+        <v>721470</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
-        <v>246</v>
+        <v>684</v>
       </c>
       <c r="N26" s="7">
-        <v>254279</v>
+        <v>721470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,39 +2391,39 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>745</v>
       </c>
       <c r="I27" s="7">
-        <v>278144</v>
+        <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
-        <v>270</v>
+        <v>745</v>
       </c>
       <c r="N27" s="7">
-        <v>278144</v>
+        <v>783511</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2549,34 +2442,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>260146</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>260146</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,40 +2491,40 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>28</v>
+        <v>3038</v>
       </c>
       <c r="I29" s="7">
-        <v>30213</v>
+        <v>3119052</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
-        <v>28</v>
+        <v>3038</v>
       </c>
       <c r="N29" s="7">
-        <v>30213</v>
+        <v>3119052</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2647,509 +2540,64 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>593</v>
+        <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>608006</v>
+        <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
-        <v>593</v>
+        <v>3297</v>
       </c>
       <c r="N30" s="7">
-        <v>608006</v>
+        <v>3379198</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>621</v>
-      </c>
-      <c r="I31" s="7">
-        <v>638219</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>621</v>
-      </c>
-      <c r="N31" s="7">
-        <v>638219</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>61</v>
-      </c>
-      <c r="I33" s="7">
-        <v>62041</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="A31" t="s">
         <v>75</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M33" s="7">
-        <v>61</v>
-      </c>
-      <c r="N33" s="7">
-        <v>62041</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>684</v>
-      </c>
-      <c r="I34" s="7">
-        <v>721470</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M34" s="7">
-        <v>684</v>
-      </c>
-      <c r="N34" s="7">
-        <v>721470</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>745</v>
-      </c>
-      <c r="I35" s="7">
-        <v>783511</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="7">
-        <v>745</v>
-      </c>
-      <c r="N35" s="7">
-        <v>783511</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>259</v>
-      </c>
-      <c r="I37" s="7">
-        <v>260146</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M37" s="7">
-        <v>259</v>
-      </c>
-      <c r="N37" s="7">
-        <v>260146</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3038</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3038</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3297</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCADB0E3-1265-4EC8-9B71-0409A3E39A6C}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B21048-204A-4470-B536-84B07AF8E855}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3165,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3353,7 +2801,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3396,9 +2844,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3414,38 +2864,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="7">
+        <v>32006</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N7" s="7">
+        <v>32006</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3461,40 +2913,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>491759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>491759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3510,40 +2962,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>32006</v>
+        <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="N9" s="7">
-        <v>32006</v>
+        <v>523765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3559,40 +3013,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>448</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>491759</v>
+        <v>10102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
-        <v>448</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>491759</v>
+        <v>10102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3608,42 +3062,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>480</v>
+        <v>307</v>
       </c>
       <c r="I11" s="7">
-        <v>523765</v>
+        <v>330918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
-        <v>480</v>
+        <v>307</v>
       </c>
       <c r="N11" s="7">
-        <v>523765</v>
+        <v>330918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -3659,40 +3111,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>341020</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3708,40 +3162,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>10102</v>
+        <v>19443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>10102</v>
+        <v>19443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3757,34 +3211,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>307</v>
+        <v>609</v>
       </c>
       <c r="I14" s="7">
-        <v>330918</v>
+        <v>656753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>307</v>
+        <v>609</v>
       </c>
       <c r="N14" s="7">
-        <v>330918</v>
+        <v>656753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,39 +3260,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>317</v>
+        <v>627</v>
       </c>
       <c r="I15" s="7">
-        <v>341020</v>
+        <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>317</v>
+        <v>627</v>
       </c>
       <c r="N15" s="7">
-        <v>341020</v>
+        <v>676196</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3857,34 +3311,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>17388</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>17388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,40 +3360,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I17" s="7">
-        <v>19443</v>
+        <v>202203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="N17" s="7">
-        <v>19443</v>
+        <v>202203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3955,40 +3409,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>609</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>656753</v>
+        <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>609</v>
+        <v>212</v>
       </c>
       <c r="N18" s="7">
-        <v>656753</v>
+        <v>219591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4004,42 +3460,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>19219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
-        <v>627</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>676196</v>
+        <v>19219</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4055,40 +3509,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>258877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>258877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -4104,40 +3558,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="I21" s="7">
-        <v>17388</v>
+        <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="N21" s="7">
-        <v>17388</v>
+        <v>278096</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4153,40 +3609,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>202203</v>
+        <v>25726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>202203</v>
+        <v>25726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -4202,42 +3658,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>612</v>
       </c>
       <c r="I23" s="7">
-        <v>219591</v>
+        <v>668127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
-        <v>212</v>
+        <v>612</v>
       </c>
       <c r="N23" s="7">
-        <v>219591</v>
+        <v>668127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -4253,40 +3707,42 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>693853</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -4302,40 +3758,40 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>19219</v>
+        <v>13526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>19219</v>
+        <v>13526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -4351,34 +3807,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>249</v>
+        <v>743</v>
       </c>
       <c r="I26" s="7">
-        <v>258877</v>
+        <v>809052</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="M26" s="7">
-        <v>249</v>
+        <v>743</v>
       </c>
       <c r="N26" s="7">
-        <v>258877</v>
+        <v>809052</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,39 +3856,39 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>268</v>
+        <v>756</v>
       </c>
       <c r="I27" s="7">
-        <v>278096</v>
+        <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
-        <v>268</v>
+        <v>756</v>
       </c>
       <c r="N27" s="7">
-        <v>278096</v>
+        <v>822578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4451,34 +3907,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>137409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="7">
+        <v>133</v>
+      </c>
+      <c r="N28" s="7">
+        <v>137409</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,40 +3956,40 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>24</v>
+        <v>3163</v>
       </c>
       <c r="I29" s="7">
-        <v>25726</v>
+        <v>3417689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3163</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3417689</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M29" s="7">
-        <v>24</v>
-      </c>
-      <c r="N29" s="7">
-        <v>25726</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -4549,509 +4005,64 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>612</v>
+        <v>3296</v>
       </c>
       <c r="I30" s="7">
-        <v>668127</v>
+        <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
-        <v>612</v>
+        <v>3296</v>
       </c>
       <c r="N30" s="7">
-        <v>668127</v>
+        <v>3555098</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>636</v>
-      </c>
-      <c r="I31" s="7">
-        <v>693853</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>636</v>
-      </c>
-      <c r="N31" s="7">
-        <v>693853</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>13</v>
-      </c>
-      <c r="I33" s="7">
-        <v>13526</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M33" s="7">
-        <v>13</v>
-      </c>
-      <c r="N33" s="7">
-        <v>13526</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>743</v>
-      </c>
-      <c r="I34" s="7">
-        <v>809052</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M34" s="7">
-        <v>743</v>
-      </c>
-      <c r="N34" s="7">
-        <v>809052</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>756</v>
-      </c>
-      <c r="I35" s="7">
-        <v>822578</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="7">
-        <v>756</v>
-      </c>
-      <c r="N35" s="7">
-        <v>822578</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>133</v>
-      </c>
-      <c r="I37" s="7">
-        <v>137409</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37" s="7">
-        <v>133</v>
-      </c>
-      <c r="N37" s="7">
-        <v>137409</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3163</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3163</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3296</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
+      <c r="A31" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EF26ED-9B21-418E-AE35-82939088A859}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5F5528-753D-463A-AD7F-6CF3829D1E98}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5067,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5181,34 +4192,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>6319</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,40 +4241,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="I5" s="7">
-        <v>6319</v>
+        <v>282384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="N5" s="7">
-        <v>6319</v>
+        <v>282384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5279,40 +4290,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I6" s="7">
-        <v>282384</v>
+        <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N6" s="7">
-        <v>282384</v>
+        <v>288703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5328,42 +4341,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>288703</v>
+        <v>3927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>288703</v>
+        <v>3927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5379,40 +4390,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>519157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>519157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5428,40 +4439,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="I9" s="7">
-        <v>3927</v>
+        <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="N9" s="7">
-        <v>3927</v>
+        <v>523084</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5477,40 +4490,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>519157</v>
+        <v>7343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>519157</v>
+        <v>7343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5526,42 +4539,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>484</v>
+        <v>324</v>
       </c>
       <c r="I11" s="7">
-        <v>523084</v>
+        <v>328966</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
-        <v>484</v>
+        <v>324</v>
       </c>
       <c r="N11" s="7">
-        <v>523084</v>
+        <v>328966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5577,40 +4588,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>336309</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5626,40 +4639,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>7343</v>
+        <v>4698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>7343</v>
+        <v>4698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5675,34 +4688,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>328966</v>
+        <v>382585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="N14" s="7">
-        <v>328966</v>
+        <v>382585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,39 +4737,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="I15" s="7">
-        <v>336309</v>
+        <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="N15" s="7">
-        <v>336309</v>
+        <v>387283</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5775,34 +4788,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,40 +4837,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="I17" s="7">
-        <v>4698</v>
+        <v>214713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="N17" s="7">
-        <v>4698</v>
+        <v>214713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -5873,40 +4886,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>382585</v>
+        <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="N18" s="7">
-        <v>382585</v>
+        <v>218587</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5922,42 +4937,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>387283</v>
+        <v>921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>387283</v>
+        <v>921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5973,40 +4986,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>272194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>272194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6022,40 +5035,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="I21" s="7">
-        <v>3874</v>
+        <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="N21" s="7">
-        <v>3874</v>
+        <v>273115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6071,40 +5086,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>214713</v>
+        <v>31300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="N22" s="7">
-        <v>214713</v>
+        <v>31300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -6120,42 +5135,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>223</v>
+        <v>615</v>
       </c>
       <c r="I23" s="7">
-        <v>218587</v>
+        <v>659994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
-        <v>223</v>
+        <v>615</v>
       </c>
       <c r="N23" s="7">
-        <v>218587</v>
+        <v>659994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -6171,40 +5184,42 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>691294</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -6220,40 +5235,40 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>921</v>
+        <v>8007</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>921</v>
+        <v>8007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -6269,34 +5284,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>262</v>
+        <v>747</v>
       </c>
       <c r="I26" s="7">
-        <v>272194</v>
+        <v>818160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>262</v>
+        <v>747</v>
       </c>
       <c r="N26" s="7">
-        <v>272194</v>
+        <v>818160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,39 +5333,39 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>263</v>
+        <v>755</v>
       </c>
       <c r="I27" s="7">
-        <v>273115</v>
+        <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
-        <v>263</v>
+        <v>755</v>
       </c>
       <c r="N27" s="7">
-        <v>273115</v>
+        <v>826167</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6369,34 +5384,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>66388</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>66388</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,40 +5433,40 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>31</v>
+        <v>3271</v>
       </c>
       <c r="I29" s="7">
-        <v>31300</v>
+        <v>3478154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
-        <v>31</v>
+        <v>3271</v>
       </c>
       <c r="N29" s="7">
-        <v>31300</v>
+        <v>3478154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -6467,509 +5482,64 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>615</v>
+        <v>3338</v>
       </c>
       <c r="I30" s="7">
-        <v>659994</v>
+        <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
-        <v>615</v>
+        <v>3338</v>
       </c>
       <c r="N30" s="7">
-        <v>659994</v>
+        <v>3544542</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>646</v>
-      </c>
-      <c r="I31" s="7">
-        <v>691294</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>646</v>
-      </c>
-      <c r="N31" s="7">
-        <v>691294</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>8</v>
-      </c>
-      <c r="I33" s="7">
-        <v>8007</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8</v>
-      </c>
-      <c r="N33" s="7">
-        <v>8007</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>747</v>
-      </c>
-      <c r="I34" s="7">
-        <v>818160</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M34" s="7">
-        <v>747</v>
-      </c>
-      <c r="N34" s="7">
-        <v>818160</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>755</v>
-      </c>
-      <c r="I35" s="7">
-        <v>826167</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="7">
-        <v>755</v>
-      </c>
-      <c r="N35" s="7">
-        <v>826167</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>67</v>
-      </c>
-      <c r="I37" s="7">
-        <v>66388</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M37" s="7">
-        <v>67</v>
-      </c>
-      <c r="N37" s="7">
-        <v>66388</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3271</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3271</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
+      <c r="A31" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89411827-0FAC-4537-A8F5-338085736E9B}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD07022-4E17-4E42-877D-0AD9F2E77A7D}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6985,7 +5555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7099,34 +5669,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,40 +5718,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>535</v>
       </c>
       <c r="I5" s="7">
-        <v>1103</v>
+        <v>270300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>535</v>
       </c>
       <c r="N5" s="7">
-        <v>1103</v>
+        <v>270300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -7197,40 +5767,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>270300</v>
+        <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N6" s="7">
-        <v>270300</v>
+        <v>271403</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -7246,42 +5818,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>33379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>271403</v>
+        <v>33379</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -7297,40 +5867,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>677</v>
       </c>
       <c r="I8" s="7">
-        <v>3785</v>
+        <v>516023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>677</v>
       </c>
       <c r="N8" s="7">
-        <v>3785</v>
+        <v>516023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -7346,40 +5916,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>711</v>
       </c>
       <c r="I9" s="7">
-        <v>33379</v>
+        <v>549402</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>711</v>
       </c>
       <c r="N9" s="7">
-        <v>33379</v>
+        <v>549402</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -7395,40 +5967,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>677</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>516022</v>
+        <v>10919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>677</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>516022</v>
+        <v>10919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -7444,42 +6016,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>715</v>
+        <v>523</v>
       </c>
       <c r="I11" s="7">
-        <v>553187</v>
+        <v>362365</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
-        <v>715</v>
+        <v>523</v>
       </c>
       <c r="N11" s="7">
-        <v>553187</v>
+        <v>362365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -7495,40 +6065,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>373284</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -7544,40 +6116,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>10919</v>
+        <v>30417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>10919</v>
+        <v>30417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -7593,34 +6165,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="I14" s="7">
-        <v>362365</v>
+        <v>397466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="N14" s="7">
-        <v>362365</v>
+        <v>397466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,39 +6214,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>427883</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="N15" s="7">
-        <v>373284</v>
+        <v>427883</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7693,34 +6265,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>673</v>
+        <v>20136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>673</v>
+        <v>20136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,40 +6314,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="I17" s="7">
-        <v>30417</v>
+        <v>211360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="N17" s="7">
-        <v>30417</v>
+        <v>211360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -7791,40 +6363,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>397466</v>
+        <v>231496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="N18" s="7">
-        <v>397466</v>
+        <v>231496</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -7840,42 +6414,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>599</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>12870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
-        <v>599</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>428556</v>
+        <v>12870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -7891,40 +6463,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="I20" s="7">
-        <v>28017</v>
+        <v>262035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="N20" s="7">
-        <v>28017</v>
+        <v>262035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -7940,40 +6512,42 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>20136</v>
+        <v>274905</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="N21" s="7">
-        <v>20136</v>
+        <v>274905</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -7989,40 +6563,40 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="I22" s="7">
-        <v>211360</v>
+        <v>102215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>211360</v>
+        <v>102215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -8038,42 +6612,40 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>495</v>
+        <v>837</v>
       </c>
       <c r="I23" s="7">
-        <v>259513</v>
+        <v>699448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
-        <v>495</v>
+        <v>837</v>
       </c>
       <c r="N23" s="7">
-        <v>259513</v>
+        <v>699448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -8089,40 +6661,42 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>955</v>
       </c>
       <c r="I24" s="7">
-        <v>718</v>
+        <v>801663</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>955</v>
       </c>
       <c r="N24" s="7">
-        <v>718</v>
+        <v>801663</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -8138,40 +6712,40 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>12870</v>
+        <v>18079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>12870</v>
+        <v>18079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8187,34 +6761,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>444</v>
+        <v>1042</v>
       </c>
       <c r="I26" s="7">
-        <v>262034</v>
+        <v>847593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
-        <v>444</v>
+        <v>1042</v>
       </c>
       <c r="N26" s="7">
-        <v>262034</v>
+        <v>847593</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,39 +6810,39 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>460</v>
+        <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>865672</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
-        <v>460</v>
+        <v>1061</v>
       </c>
       <c r="N27" s="7">
-        <v>275622</v>
+        <v>865672</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8287,34 +6861,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="I28" s="7">
-        <v>779</v>
+        <v>229119</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="N28" s="7">
-        <v>779</v>
+        <v>229119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,40 +6910,40 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>118</v>
+        <v>5094</v>
       </c>
       <c r="I29" s="7">
-        <v>102215</v>
+        <v>3566589</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7">
-        <v>118</v>
+        <v>5094</v>
       </c>
       <c r="N29" s="7">
-        <v>102215</v>
+        <v>3566589</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -8385,501 +6959,56 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>837</v>
+        <v>5349</v>
       </c>
       <c r="I30" s="7">
-        <v>699447</v>
+        <v>3795708</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
-        <v>837</v>
+        <v>5349</v>
       </c>
       <c r="N30" s="7">
-        <v>699447</v>
+        <v>3795708</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>957</v>
-      </c>
-      <c r="I31" s="7">
-        <v>802442</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>957</v>
-      </c>
-      <c r="N31" s="7">
-        <v>802442</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2762</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2762</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7">
-        <v>19</v>
-      </c>
-      <c r="I33" s="7">
-        <v>18079</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" s="7">
-        <v>19</v>
-      </c>
-      <c r="N33" s="7">
-        <v>18079</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1042</v>
-      </c>
-      <c r="I34" s="7">
-        <v>847593</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" s="7">
-        <v>1042</v>
-      </c>
-      <c r="N34" s="7">
-        <v>847593</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1062</v>
-      </c>
-      <c r="I35" s="7">
-        <v>868434</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1062</v>
-      </c>
-      <c r="N35" s="7">
-        <v>868434</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>13</v>
-      </c>
-      <c r="I36" s="7">
-        <v>36734</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M36" s="7">
-        <v>13</v>
-      </c>
-      <c r="N36" s="7">
-        <v>36734</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>255</v>
-      </c>
-      <c r="I37" s="7">
-        <v>229119</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M37" s="7">
-        <v>255</v>
-      </c>
-      <c r="N37" s="7">
-        <v>229119</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>5094</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3566588</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M38" s="7">
-        <v>5094</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3566588</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3832441</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="7">
-        <v>5362</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3832441</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>87</v>
+      <c r="A31" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3222B77-F88A-42D8-AD6B-B6ED8714E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4DA688-AAFC-4EFA-947B-BF335D5BBCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B423DDE-A963-4E33-8845-6D426B81C8CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AA595779-92BE-4562-B7DD-FF5294392D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -272,6 +272,24 @@
     <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
     <t>6,11%</t>
   </si>
   <si>
@@ -308,22 +326,22 @@
     <t>98,54%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>5,04%</t>
@@ -560,40 +578,40 @@
     <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>2,93%</t>
@@ -602,112 +620,118 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,4%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>94,6%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3DF853-5093-4D52-9024-07D70B74ABCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5F195A-08F2-494E-A73E-583D1B4E46B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2494,7 +2518,7 @@
         <v>3038</v>
       </c>
       <c r="I29" s="7">
-        <v>3119052</v>
+        <v>3119051</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>72</v>
@@ -2509,7 +2533,7 @@
         <v>3038</v>
       </c>
       <c r="N29" s="7">
-        <v>3119052</v>
+        <v>3119051</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>72</v>
@@ -2543,7 +2567,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2558,7 +2582,7 @@
         <v>3297</v>
       </c>
       <c r="N30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2596,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B21048-204A-4470-B536-84B07AF8E855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB6EB4C-C9CC-4905-8938-2FBC7C99CF8D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,30 +2751,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5745</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5745</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,30 +2800,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I5" s="7">
+        <v>281500</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="N5" s="7">
+        <v>281500</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,30 +2849,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="N6" s="7">
+        <v>287245</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2906,13 @@
         <v>32006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2885,13 +2921,13 @@
         <v>32006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2955,13 @@
         <v>491759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>448</v>
@@ -2934,13 +2970,13 @@
         <v>491759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3055,13 @@
         <v>10102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3034,13 +3070,13 @@
         <v>10102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3104,13 @@
         <v>330918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>307</v>
@@ -3083,13 +3119,13 @@
         <v>330918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,34 +3198,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>19443</v>
+        <v>13698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>19443</v>
+        <v>13698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,34 +3247,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>609</v>
+        <v>358</v>
       </c>
       <c r="I14" s="7">
-        <v>656753</v>
+        <v>375253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>609</v>
+        <v>358</v>
       </c>
       <c r="N14" s="7">
-        <v>656753</v>
+        <v>375253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,10 +3296,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3275,10 +3311,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3320,10 +3356,10 @@
         <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3335,10 +3371,10 @@
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,10 +3405,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -3384,10 +3420,10 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3502,13 @@
         <v>19219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -3481,13 +3517,13 @@
         <v>19219</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3551,13 @@
         <v>258877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -3530,13 +3566,13 @@
         <v>258877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3651,13 @@
         <v>25726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -3630,13 +3666,13 @@
         <v>25726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3700,13 @@
         <v>668127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>612</v>
@@ -3679,13 +3715,13 @@
         <v>668127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3800,13 @@
         <v>13526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3779,13 +3815,13 @@
         <v>13526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3849,13 @@
         <v>809052</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>743</v>
@@ -3828,13 +3864,13 @@
         <v>809052</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3949,13 @@
         <v>137409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -3928,13 +3964,13 @@
         <v>137409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3998,13 @@
         <v>3417689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>3163</v>
@@ -3977,13 +4013,13 @@
         <v>3417689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5F5528-753D-463A-AD7F-6CF3829D1E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E0A799-7C2F-47BF-8B18-FD01E01188DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4078,7 +4114,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4198,13 +4234,13 @@
         <v>6319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4213,13 +4249,13 @@
         <v>6319</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4283,13 @@
         <v>282384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>271</v>
@@ -4262,13 +4298,13 @@
         <v>282384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4383,13 @@
         <v>3927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4362,13 +4398,13 @@
         <v>3927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4432,13 @@
         <v>519157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -4411,13 +4447,13 @@
         <v>519157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4532,13 @@
         <v>7343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4511,13 +4547,13 @@
         <v>7343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4581,13 @@
         <v>328966</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>324</v>
@@ -4560,13 +4596,13 @@
         <v>328966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4681,13 @@
         <v>4698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4660,13 +4696,13 @@
         <v>4698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4730,13 @@
         <v>382585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>353</v>
@@ -4709,13 +4745,13 @@
         <v>382585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4830,13 @@
         <v>3874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4809,13 +4845,13 @@
         <v>3874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4879,13 @@
         <v>214713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4858,13 +4894,13 @@
         <v>214713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4979,13 @@
         <v>921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4958,13 +4994,13 @@
         <v>921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5028,13 @@
         <v>272194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>262</v>
@@ -5007,13 +5043,13 @@
         <v>272194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5128,13 @@
         <v>31300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -5107,13 +5143,13 @@
         <v>31300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5177,13 @@
         <v>659994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>615</v>
@@ -5156,13 +5192,13 @@
         <v>659994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5277,13 @@
         <v>8007</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5256,13 +5292,13 @@
         <v>8007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5326,13 @@
         <v>818160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>747</v>
@@ -5305,13 +5341,13 @@
         <v>818160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5426,13 @@
         <v>66388</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -5405,13 +5441,13 @@
         <v>66388</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5475,13 @@
         <v>3478154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>3271</v>
@@ -5454,13 +5490,13 @@
         <v>3478154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD07022-4E17-4E42-877D-0AD9F2E77A7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7C13BB-A3BF-4B9E-9BA2-D1F87617A647}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5555,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5672,31 +5708,31 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1103</v>
+        <v>1134</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1103</v>
+        <v>1134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,31 +5757,31 @@
         <v>535</v>
       </c>
       <c r="I5" s="7">
-        <v>270300</v>
+        <v>288501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
       </c>
       <c r="N5" s="7">
-        <v>270300</v>
+        <v>288501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +5806,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5785,7 +5821,7 @@
         <v>538</v>
       </c>
       <c r="N6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5821,31 +5857,31 @@
         <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>33379</v>
+        <v>31622</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>33379</v>
+        <v>31622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,31 +5906,31 @@
         <v>677</v>
       </c>
       <c r="I8" s="7">
-        <v>516023</v>
+        <v>478512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>677</v>
       </c>
       <c r="N8" s="7">
-        <v>516023</v>
+        <v>478512</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +5955,7 @@
         <v>711</v>
       </c>
       <c r="I9" s="7">
-        <v>549402</v>
+        <v>510134</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5934,7 +5970,7 @@
         <v>711</v>
       </c>
       <c r="N9" s="7">
-        <v>549402</v>
+        <v>510134</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5970,31 +6006,31 @@
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>10919</v>
+        <v>10240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10919</v>
+        <v>10240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,31 +6055,31 @@
         <v>523</v>
       </c>
       <c r="I11" s="7">
-        <v>362365</v>
+        <v>338888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
       </c>
       <c r="N11" s="7">
-        <v>362365</v>
+        <v>338888</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6104,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6083,7 +6119,7 @@
         <v>536</v>
       </c>
       <c r="N12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6119,31 +6155,31 @@
         <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>30417</v>
+        <v>83570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>30417</v>
+        <v>83570</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,31 +6204,31 @@
         <v>582</v>
       </c>
       <c r="I14" s="7">
-        <v>397466</v>
+        <v>391520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>582</v>
       </c>
       <c r="N14" s="7">
-        <v>397466</v>
+        <v>391520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6253,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>427883</v>
+        <v>475090</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6232,7 +6268,7 @@
         <v>598</v>
       </c>
       <c r="N15" s="7">
-        <v>427883</v>
+        <v>475090</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6268,31 +6304,31 @@
         <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>20136</v>
+        <v>18238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>20136</v>
+        <v>18238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,31 +6353,31 @@
         <v>454</v>
       </c>
       <c r="I17" s="7">
-        <v>211360</v>
+        <v>190036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
       </c>
       <c r="N17" s="7">
-        <v>211360</v>
+        <v>190036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6402,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6381,7 +6417,7 @@
         <v>491</v>
       </c>
       <c r="N18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6417,31 +6453,31 @@
         <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>12870</v>
+        <v>11939</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>12870</v>
+        <v>11939</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,31 +6502,31 @@
         <v>444</v>
       </c>
       <c r="I20" s="7">
-        <v>262035</v>
+        <v>244448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
       </c>
       <c r="N20" s="7">
-        <v>262035</v>
+        <v>244448</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,7 +6551,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6530,7 +6566,7 @@
         <v>459</v>
       </c>
       <c r="N21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6566,31 +6602,31 @@
         <v>118</v>
       </c>
       <c r="I22" s="7">
-        <v>102215</v>
+        <v>95286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>102215</v>
+        <v>95286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,31 +6651,31 @@
         <v>837</v>
       </c>
       <c r="I23" s="7">
-        <v>699448</v>
+        <v>751580</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>837</v>
       </c>
       <c r="N23" s="7">
-        <v>699448</v>
+        <v>751580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,7 +6700,7 @@
         <v>955</v>
       </c>
       <c r="I24" s="7">
-        <v>801663</v>
+        <v>846866</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6679,7 +6715,7 @@
         <v>955</v>
       </c>
       <c r="N24" s="7">
-        <v>801663</v>
+        <v>846866</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6715,31 +6751,31 @@
         <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>18079</v>
+        <v>14797</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>18079</v>
+        <v>14797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,31 +6800,31 @@
         <v>1042</v>
       </c>
       <c r="I26" s="7">
-        <v>847593</v>
+        <v>700595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>1042</v>
       </c>
       <c r="N26" s="7">
-        <v>847593</v>
+        <v>700595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,7 +6849,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6828,7 +6864,7 @@
         <v>1061</v>
       </c>
       <c r="N27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6864,31 +6900,31 @@
         <v>255</v>
       </c>
       <c r="I28" s="7">
-        <v>229119</v>
+        <v>266826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>255</v>
       </c>
       <c r="N28" s="7">
-        <v>229119</v>
+        <v>266826</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,31 +6949,31 @@
         <v>5094</v>
       </c>
       <c r="I29" s="7">
-        <v>3566589</v>
+        <v>3384078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M29" s="7">
         <v>5094</v>
       </c>
       <c r="N29" s="7">
-        <v>3566589</v>
+        <v>3384078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,7 +6998,7 @@
         <v>5349</v>
       </c>
       <c r="I30" s="7">
-        <v>3795708</v>
+        <v>3650904</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -6977,7 +7013,7 @@
         <v>5349</v>
       </c>
       <c r="N30" s="7">
-        <v>3795708</v>
+        <v>3650904</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
